--- a/MeroShare Login Details.xlsx
+++ b/MeroShare Login Details.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Projects\MeroShare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Projects\Meroshare Worka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE77858-E917-4CEE-A0CE-E8FB205439B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E1880C-006C-405A-AF39-CB1119F3C2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginDetails" sheetId="3" r:id="rId1"/>
+    <sheet name="List" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,7 +85,14 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -124,15 +131,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,10 +216,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -394,10 +405,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J141">
-    <sortCondition ref="A1:A141"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
+    <sortCondition ref="A1:A128"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S.No" dataDxfId="9"/>
@@ -705,10 +716,10 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -719,11 +730,11 @@
     <col min="7" max="7" width="15.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,23 +766,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/MeroShare Login Details.xlsx
+++ b/MeroShare Login Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Projects\Meroshare Worka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MeroShare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E1880C-006C-405A-AF39-CB1119F3C2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C14F3A-77BC-4EED-A122-BCAFF9A2E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,14 +85,15 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,10 +113,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -131,21 +133,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -216,10 +215,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -405,10 +404,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
-    <sortCondition ref="A1:A128"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J114">
+    <sortCondition ref="A1:A114"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S.No" dataDxfId="9"/>
@@ -417,7 +416,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Apply IPO" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Client ID" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DP ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Password" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Password" dataDxfId="3" dataCellStyle="Hyperlink"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CRN Number" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pin" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Bank Name" dataDxfId="0"/>
@@ -716,10 +715,10 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -730,11 +729,11 @@
     <col min="7" max="7" width="15.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="26.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,21 +765,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/MeroShare Login Details.xlsx
+++ b/MeroShare Login Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MeroShare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C14F3A-77BC-4EED-A122-BCAFF9A2E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D83EC8-7BDC-41C8-A6C2-39C897FA947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,10 +404,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J114">
-    <sortCondition ref="A1:A114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J127">
+    <sortCondition ref="A1:A127"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S.No" dataDxfId="9"/>
@@ -416,7 +416,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Apply IPO" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Client ID" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DP ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Password" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Password" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CRN Number" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pin" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Bank Name" dataDxfId="0"/>
@@ -715,7 +715,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
